--- a/excel/CNN.xlsx
+++ b/excel/CNN.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOE BIDEN</t>
+          <t>ELECCIONES EN ESTADOS UNIDOS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El presidente de EE.UU. Joe Biden dio positivo por covid-19</t>
+          <t>Así fue como un discreto gobernador llegó a ser la fórmula Harris-Walz</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>María Corina Machado denuncia la detención de su jefe de seguridad</t>
+          <t>El TSJ de Venezuela inicia peritaje de actas de la elección presidencial</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INMIGRACIÓN</t>
+          <t>MÉXICO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ted Cruz dijo que Venezuela envía criminales a EE.UU. Esto es falso</t>
+          <t>Invitan a Putin a toma de posesión de Sheinbaum, según agencia estatal rusa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DONALD TRUMP</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cómo fue que el atacante de Trump fue identificado en 30 minutos</t>
+          <t>Fabiola Yáñez denuncia a Alberto Fernández por "violencia física y mental"</t>
         </is>
       </c>
     </row>

--- a/excel/CNN.xlsx
+++ b/excel/CNN.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECCIONES EN ESTADOS UNIDOS</t>
+          <t>MINUTO A MINUTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Así fue como un discreto gobernador llegó a ser la fórmula Harris-Walz</t>
+          <t>Lo que indican los números que presentó la oposición en Venezuela</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El TSJ de Venezuela inicia peritaje de actas de la elección presidencial</t>
+          <t>Denuncian detención de líder estatal de la oposición venezolana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MÉXICO</t>
+          <t>VENEZUELA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Invitan a Putin a toma de posesión de Sheinbaum, según agencia estatal rusa</t>
+          <t>ANÁLISIS | ¿Cuál es el rol de Brasil en la situación de Venezuela?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>UCRANIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fabiola Yáñez denuncia a Alberto Fernández por "violencia física y mental"</t>
+          <t>Rusia dice que tropas ucranianas cruzaron a su territorio y lanzaron ataque</t>
         </is>
       </c>
     </row>
